--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/my-va/My VA long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/my-va/My VA long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54C9768-EB86-405B-945E-A76A19AE741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9F96C-72BA-4165-8E7C-28697094A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="816" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="50" yWindow="100" windowWidth="19150" windowHeight="10100" tabRatio="816" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA_Payment history" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
   <si>
     <t>PM</t>
   </si>
@@ -724,9 +724,6 @@
   </si>
   <si>
     <t>Project</t>
-  </si>
-  <si>
-    <t>Profile</t>
   </si>
   <si>
     <t>Pre-launch</t>
@@ -1322,9 +1319,6 @@
     <t>Research review; Discuss next steps</t>
   </si>
   <si>
-    <t>Launch to 25%; Launch to 50%</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1752,21 +1746,9 @@
     <t>Staging review and privacy review; Launch go/no-go</t>
   </si>
   <si>
-    <t xml:space="preserve">End-to-end testing; QA go/no-go; QA; Release plan; Call center guide (can use My VA guide) </t>
-  </si>
-  <si>
-    <t>Research write-up; FE build</t>
-  </si>
-  <si>
     <t>Design intent; Payment &amp; debts and Apply for benefits updates; Does nametag need updates?</t>
   </si>
   <si>
-    <t>Staging review; Privacy review</t>
-  </si>
-  <si>
-    <t>IF READY, Research recruiting, UAT/usability testing; Contact center guide updates</t>
-  </si>
-  <si>
     <t>Code implementation (identity); IA request if it didn't already happen; UAT planning (Liz); Figure out what updates need to happen for the contact center guide (which guide); "QA" once the feature is on staging</t>
   </si>
   <si>
@@ -1782,9 +1764,6 @@
     <t>If time: create documentation update plan</t>
   </si>
   <si>
-    <t>Updates from midpoint review; research recruiting</t>
-  </si>
-  <si>
     <t>Research sessions/write-up/updates</t>
   </si>
   <si>
@@ -1804,6 +1783,111 @@
   </si>
   <si>
     <t xml:space="preserve">Long term planning </t>
+  </si>
+  <si>
+    <t>Launch to 50%; Launch to 100%</t>
+  </si>
+  <si>
+    <t>End-to-end testing; QA go/no-go; QA; Release plan; Call center guide (can use My VA guide); Make sure we know where we are tracking analytics for launch</t>
+  </si>
+  <si>
+    <t>Payment history V2</t>
+  </si>
+  <si>
+    <t>My VA redirect</t>
+  </si>
+  <si>
+    <t>My VA audit &amp; updates</t>
+  </si>
+  <si>
+    <t>Documentations</t>
+  </si>
+  <si>
+    <t>Research/write up</t>
+  </si>
+  <si>
+    <t>FE build; Contact center guide updates; QA request</t>
+  </si>
+  <si>
+    <t>Staging review; UAT go/no-go; UAT recruiting</t>
+  </si>
+  <si>
+    <t>UAT; Launch go/no-go; Launch to 25%</t>
+  </si>
+  <si>
+    <t>UAT; Launch</t>
+  </si>
+  <si>
+    <t>Rough plan from here on -- plan may need adjustment</t>
+  </si>
+  <si>
+    <t>Release plan and reviews</t>
+  </si>
+  <si>
+    <t>Launch to 25%</t>
+  </si>
+  <si>
+    <t>End-to end testing and QA</t>
+  </si>
+  <si>
+    <t>Final reviews</t>
+  </si>
+  <si>
+    <t>Launch to 25% &amp; 50%</t>
+  </si>
+  <si>
+    <t>Launch to 5% &amp; 10%</t>
+  </si>
+  <si>
+    <t>Launch to 50% &amp; 100%</t>
+  </si>
+  <si>
+    <t>On hold</t>
+  </si>
+  <si>
+    <t>Angela resumes work</t>
+  </si>
+  <si>
+    <t>QA; Updates from QA; Staging review prep; do we need a privacy review?</t>
+  </si>
+  <si>
+    <t>Ongoing work</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Continue planning; determine next steps -- unclear if work needs to start now or should wait until audit updates have been fully vetted through research</t>
+  </si>
+  <si>
+    <t>FE build; QA go/no-go; Analytics request; Release plan; UAT planning</t>
+  </si>
+  <si>
+    <t>Design -- FE documentation for build; Start FE build if possible</t>
+  </si>
+  <si>
+    <t>UAT/usability testing &amp; write up; Staging review prep; Do we need a privacy review? If so, prep for that; Release plan</t>
+  </si>
+  <si>
+    <t>Hold Staging review; Privacy review</t>
+  </si>
+  <si>
+    <t>Launch go/no-go; Launch to 25%; Launch to 50%</t>
+  </si>
+  <si>
+    <t>UAT (postponed)</t>
+  </si>
+  <si>
+    <t>Research recruiting, UAT/usability testing ON HOLD; Contact center guide updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updates from midpoint review; </t>
+  </si>
+  <si>
+    <t>Another midpoint?; Research recruiting</t>
+  </si>
+  <si>
+    <t>Another midpoint/research recruiting</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1964,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1911,6 +1995,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1925,7 +2015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1961,6 +2051,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2276,16 +2370,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="54.4140625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
@@ -2298,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2338,7 +2433,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -2346,7 +2441,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
@@ -2354,7 +2449,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="124" x14ac:dyDescent="0.35">
@@ -2362,7 +2457,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="124" x14ac:dyDescent="0.35">
@@ -2370,7 +2465,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="155" x14ac:dyDescent="0.35">
@@ -2378,7 +2473,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -2386,7 +2481,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="201.5" x14ac:dyDescent="0.35">
@@ -2394,7 +2489,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
@@ -2402,97 +2497,138 @@
         <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B17" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="93" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2504,10 +2640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A29F7F-D318-4501-B539-E7F502D1032C}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2519,7 +2655,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2535,7 +2671,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
@@ -2543,149 +2679,171 @@
         <v>67</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +2857,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2711,7 +2869,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2724,70 +2882,72 @@
     </row>
     <row r="3" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" s="5"/>
     </row>
@@ -2816,7 +2976,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2828,7 +2988,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2876,7 +3036,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -2884,10 +3044,10 @@
         <v>60</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -2895,10 +3055,10 @@
         <v>61</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
@@ -2906,10 +3066,10 @@
         <v>62</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2917,7 +3077,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2925,7 +3085,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2933,7 +3093,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
@@ -2941,7 +3101,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2949,100 +3109,100 @@
         <v>67</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="93" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>78</v>
@@ -3058,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F966BB8-785F-4C4B-BE66-8CAED743FD9B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3070,7 +3230,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -3083,39 +3243,45 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3125,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3136,7 +3302,7 @@
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="23.4140625" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="21.08203125" customWidth="1"/>
@@ -3147,7 +3313,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -3155,38 +3321,147 @@
         <v>79</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="G4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/my-va/My VA long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/my-va/My VA long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9F96C-72BA-4165-8E7C-28697094A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2999C111-BBBF-4AC1-9376-3530F0273D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="100" windowWidth="19150" windowHeight="10100" tabRatio="816" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="30" yWindow="10" windowWidth="19170" windowHeight="10100" tabRatio="816" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA_Payment history" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="201">
   <si>
     <t>PM</t>
   </si>
@@ -1412,12 +1412,6 @@
     <t>Get connected to DMC; Is frontend done?</t>
   </si>
   <si>
-    <t>Launch to 5% and 10%</t>
-  </si>
-  <si>
-    <t>Launch to 25% and 50%</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1743,9 +1737,6 @@
     </r>
   </si>
   <si>
-    <t>Staging review and privacy review; Launch go/no-go</t>
-  </si>
-  <si>
     <t>Design intent; Payment &amp; debts and Apply for benefits updates; Does nametag need updates?</t>
   </si>
   <si>
@@ -1788,9 +1779,6 @@
     <t>Launch to 50%; Launch to 100%</t>
   </si>
   <si>
-    <t>End-to-end testing; QA go/no-go; QA; Release plan; Call center guide (can use My VA guide); Make sure we know where we are tracking analytics for launch</t>
-  </si>
-  <si>
     <t>Payment history V2</t>
   </si>
   <si>
@@ -1827,18 +1815,9 @@
     <t>Launch to 25%</t>
   </si>
   <si>
-    <t>End-to end testing and QA</t>
-  </si>
-  <si>
     <t>Final reviews</t>
   </si>
   <si>
-    <t>Launch to 25% &amp; 50%</t>
-  </si>
-  <si>
-    <t>Launch to 5% &amp; 10%</t>
-  </si>
-  <si>
     <t>Launch to 50% &amp; 100%</t>
   </si>
   <si>
@@ -1863,15 +1842,9 @@
     <t>FE build; QA go/no-go; Analytics request; Release plan; UAT planning</t>
   </si>
   <si>
-    <t>Design -- FE documentation for build; Start FE build if possible</t>
-  </si>
-  <si>
     <t>UAT/usability testing &amp; write up; Staging review prep; Do we need a privacy review? If so, prep for that; Release plan</t>
   </si>
   <si>
-    <t>Hold Staging review; Privacy review</t>
-  </si>
-  <si>
     <t>Launch go/no-go; Launch to 25%; Launch to 50%</t>
   </si>
   <si>
@@ -1888,6 +1861,52 @@
   </si>
   <si>
     <t>Another midpoint/research recruiting</t>
+  </si>
+  <si>
+    <t>Staging review and privacy review prep</t>
+  </si>
+  <si>
+    <t>Staging review and privacy review; updates if needed</t>
+  </si>
+  <si>
+    <t>Final reviews prep</t>
+  </si>
+  <si>
+    <t>Have Tom document the backend (diagram); Design documentation</t>
+  </si>
+  <si>
+    <t>Figure out feature flag issues</t>
+  </si>
+  <si>
+    <t>Figure out e2e issues</t>
+  </si>
+  <si>
+    <t>On hold while we figure out the feature flag issue; Research recruiting</t>
+  </si>
+  <si>
+    <t>We can move on to these if there are no issues in the usability testing/UAT sessions that cause us to reevaluate our strategy.
+Hold Staging review; Privacy review; Launch go/no-go (maybe)</t>
+  </si>
+  <si>
+    <t>On hold while we get e2e issues sorted out; Call center guide (can use My VA guide); End-to-end testing July 22 (if possible)</t>
+  </si>
+  <si>
+    <t>QA; Release plan;  Make sure we know where we are tracking analytics for launch</t>
+  </si>
+  <si>
+    <t>Launch go/no-go; Launch to 10% and 25% (launch to 25% sooner if we aren't getting data at 10%)</t>
+  </si>
+  <si>
+    <t>Launch to  50% and 100%</t>
+  </si>
+  <si>
+    <t>Launch to 10% &amp; 25%</t>
+  </si>
+  <si>
+    <t>Documentation sprint</t>
+  </si>
+  <si>
+    <t>Design -- FE documentation for build</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2392,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2513,7 +2532,7 @@
         <v>91</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
@@ -2521,7 +2540,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -2529,7 +2548,7 @@
         <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2537,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2545,7 +2564,7 @@
         <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2553,7 +2572,7 @@
         <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2561,7 +2580,7 @@
         <v>108</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2569,10 +2588,10 @@
         <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2580,7 +2599,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2588,7 +2607,7 @@
         <v>120</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2596,39 +2615,39 @@
         <v>121</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A29F7F-D318-4501-B539-E7F502D1032C}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2711,7 +2730,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
@@ -2719,10 +2738,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2730,7 +2749,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2765,7 +2784,7 @@
         <v>110</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2773,7 +2792,7 @@
         <v>120</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2781,28 +2800,28 @@
         <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>122</v>
@@ -2810,7 +2829,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>122</v>
@@ -2856,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF1A2-8F5D-4461-9230-B3FBD9CF2CBA}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2885,7 +2904,7 @@
         <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
@@ -2893,7 +2912,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -2901,7 +2920,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2909,32 +2928,32 @@
         <v>107</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2942,14 +2961,16 @@
         <v>120</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
@@ -2973,10 +2994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3133,7 +3154,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="62" x14ac:dyDescent="0.35">
@@ -3141,7 +3162,7 @@
         <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -3149,7 +3170,7 @@
         <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3157,7 +3178,7 @@
         <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3165,23 +3186,23 @@
         <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3189,7 +3210,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -3197,15 +3218,28 @@
         <v>120</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>78</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3264,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -3246,7 +3280,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3270,7 +3304,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3294,7 +3328,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3313,7 +3347,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -3336,16 +3370,16 @@
         <v>121</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -3356,13 +3390,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>122</v>
@@ -3380,7 +3414,7 @@
         <v>80</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>124</v>
@@ -3388,19 +3422,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>178</v>
+        <v>169</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -3408,36 +3445,42 @@
         <v>82</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>78</v>
+        <v>198</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -3446,16 +3489,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/my-va/My VA long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/my-va/My VA long term project planning.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2999C111-BBBF-4AC1-9376-3530F0273D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFDFC0-3FE1-4967-86DE-0B8DD3598324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="10" windowWidth="19170" windowHeight="10100" tabRatio="816" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="20" yWindow="100" windowWidth="19180" windowHeight="10100" tabRatio="816" activeTab="2" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA_Payment history" sheetId="1" r:id="rId1"/>
     <sheet name="My VA_Audit" sheetId="20" r:id="rId2"/>
-    <sheet name="My VA_Redirect" sheetId="22" r:id="rId3"/>
-    <sheet name="My VA_On-site notifications" sheetId="11" r:id="rId4"/>
-    <sheet name="My VA_Documentation" sheetId="25" r:id="rId5"/>
-    <sheet name="LT My VA planning" sheetId="14" r:id="rId6"/>
-    <sheet name="Task list for projects" sheetId="7" r:id="rId7"/>
+    <sheet name="My VA_On-site notifications" sheetId="11" r:id="rId3"/>
+    <sheet name="LT planning by person" sheetId="21" r:id="rId4"/>
+    <sheet name="Task list for projects" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="206">
   <si>
     <t>PM</t>
   </si>
@@ -244,87 +242,6 @@
   </si>
   <si>
     <t>Sprint 70 (3/23 - 4/5)</t>
-  </si>
-  <si>
-    <r>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Meet with VANotify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finalize MVP design; meet with VANotify; meet with IA; finalize MVP notification list.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Support as needed.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Talk to platform; Technical diagram; </t>
-    </r>
   </si>
   <si>
     <t>Meet with edu team</t>
@@ -386,199 +303,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Kickoff collab cycle; start build
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Collab cycle kickoff; Collab cycle design intent; meet with VANotify
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Design intent; content; meet with VANotify
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Meet with VANotify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Start build ; meet with VANotify</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Finalize designs, if possible; Determine next steps and timeline for VANotify; Continue build
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PM:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Collab cycle design intent (if it didn't happen last sprint); Work with team to define requirements for VANotify updates</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Collab cycle design intent (if it didn't happen last sprint); Work with team to define requirements for VANotify updates; Finalize designs, if not already done; Work with content, if not already done</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Work with team to define requirements for VANotify updates; Support team as necessary</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-BE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Work with team to define requirements for VANotify updates; Continue build</t>
-    </r>
-  </si>
-  <si>
-    <t>Revisit this work
-- Talk to Chris and make sure that pivoting is OK
-- Redefine MVP (elevate all appointments, messages, debt?; Maybe just elevate appointments?)
-- PM: Given this pivot, do we need to redo any of the collab cycle?
-- Tressa: Mockup/explorations</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Determine next steps
 </t>
     </r>
@@ -718,203 +442,17 @@
       </rPr>
       <t>: Do we need any technical discovery now? I don't think so.</t>
     </r>
-  </si>
-  <si>
-    <t>Launch to 100%</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Pre-launch</t>
-  </si>
-  <si>
-    <t>Finish build
-- Contact center guides
-- Finish build</t>
-  </si>
-  <si>
-    <t>On-site notifications MVP</t>
-  </si>
-  <si>
-    <t>Research
-- Midpoint review
-- Finish design if not already done
-- Research planning/convo guide
-- Start FE build? Finish backend build.</t>
-  </si>
-  <si>
-    <t>Research
-- Conduc research/summarize research if needed
-- Continue/finish FE build
-- QA prep</t>
   </si>
   <si>
     <t>Design intent
 - Design; Design intent
 - Technical discovery</t>
-  </si>
-  <si>
-    <t>Project on hold</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Resume project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-  Define needs for VANotify, determine what they need to do, and determine timeline for any work they need to do.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Figure out what design needs to be updated; Update design; determine if we need additional user testing or not based on updates; follow-up with collab cycle design intent issues/tickets and let them know about our pivot.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Determine next steps for backend build; If possible, Tom can start to implement build if possible</t>
-    </r>
   </si>
   <si>
     <t>Research/midpoint review planning
 - Midpoint review planning, including starting to put together list of test cases
 - Finish design if not already done
 - Technical discovery</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Start build
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Determine VANotify's timeline based on availability; Determine QA/testing strategy -- talk to Leah/Denise/Maria about this; Midpoint review prep (note: testing for this is going to happen as part of payment info testing)
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Research prep is happening as part of payment info
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Start FE build if possible
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Lihan to meet with VANotify to determine how the backend should receive data from VANotify; Start build</t>
-    </r>
   </si>
   <si>
     <t>Sprint 71 (4/6 - 4/19)</t>
@@ -947,106 +485,6 @@
       </rPr>
       <t>- Determine what, if anything, still needs to happen with FE build, and complete build</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hold midpoint review
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Midpoint review
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Research (as part of payment info work)
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Is there anything that still needs to happen?
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Build -- how many sprints? -- Is VANotify going away again because of contract issues?</t>
-    </r>
-  </si>
-  <si>
-    <t>Continue BE build as necessary
-Are we on hold until VANotify can work on this?</t>
-  </si>
-  <si>
-    <t>On hold until VANotify is available</t>
   </si>
   <si>
     <t>Sprint 73 (5/4 - 5/17)</t>
@@ -1147,55 +585,6 @@
     <t>Sprint 74 (5/17 - 5/31)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3/15: Intro work to the new VANotify team
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Regroup with VANotify on this work and determine what next steps are for them; determine timelines for VANotify and FE work
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Connect FE to backend API Lihan created</t>
-    </r>
-  </si>
-  <si>
     <t>Sprint 75 (6/1 - 6/14)</t>
   </si>
   <si>
@@ -1352,9 +741,6 @@
 - Privacy and security review (ticket open and pending review)</t>
   </si>
   <si>
-    <t>VANotify to start work; evaluate what they need to do so we can plan our own timelines; Do we have a plan for QA?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1385,31 +771,16 @@
     <t>My VA: Audit</t>
   </si>
   <si>
-    <t>Determine next steps for VANotify; Determine next steps for Tom</t>
-  </si>
-  <si>
     <t>Sprint 81 (8/24 - 9/6)</t>
   </si>
   <si>
     <t>Sprint 82 (9/7 - 9/20)</t>
   </si>
   <si>
-    <t>FE build</t>
-  </si>
-  <si>
-    <t>DOCUMENTATION SPRINT</t>
-  </si>
-  <si>
-    <t>Launch</t>
-  </si>
-  <si>
     <t>NOTE: Consider smaller, iterative launches</t>
   </si>
   <si>
     <t>On hold due to other work</t>
-  </si>
-  <si>
-    <t>Get connected to DMC; Is frontend done?</t>
   </si>
   <si>
     <r>
@@ -1535,16 +906,6 @@
     </r>
   </si>
   <si>
-    <t>Continue frontend
-- Continue/finish frontend, including handling of multiple alerts
-- Regroup to figure out if we need to remove debt alert in benefit payments and debts before notifications launch
-- Figure out QA plan with DMC (backend team)</t>
-  </si>
-  <si>
-    <t>Planning
-Collab cycle kickoff; Figure out who needs to be involved in the redirect; Make sure we'll be able to get weekly Medallia reports as needed; Determine preliminary launch date</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1588,10 +949,6 @@
       </rPr>
       <t>: Design updates if they didn't happen or werent't finished in sprint 73; Sitewide content/IA review (collab cycle); Research planning</t>
     </r>
-  </si>
-  <si>
-    <t>Are we done with the frontend build? What is the status of this work?
-Finish FE if it's not done; Continue to figure out QA strategy with DMC; Analytics request;</t>
   </si>
   <si>
     <t>Design on hold while we prep for midpoint review
@@ -1676,20 +1033,7 @@
     </r>
   </si>
   <si>
-    <t>Research prep/midpoint review prep</t>
-  </si>
-  <si>
-    <t>Midpoint review; Research</t>
-  </si>
-  <si>
-    <t>Request QA; Figure out how to get the backend to support test users; Coordinate QA with all necessary parties; QA go/no-go</t>
-  </si>
-  <si>
     <t>On hold for other work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM tasks from last sprint, assuming we didn' get them done.
-</t>
   </si>
   <si>
     <r>
@@ -1737,30 +1081,9 @@
     </r>
   </si>
   <si>
-    <t>Design intent; Payment &amp; debts and Apply for benefits updates; Does nametag need updates?</t>
-  </si>
-  <si>
-    <t>Code implementation (identity); IA request if it didn't already happen; UAT planning (Liz); Figure out what updates need to happen for the contact center guide (which guide); "QA" once the feature is on staging</t>
-  </si>
-  <si>
-    <t>Get DMC to add test data and determine if everything is working</t>
-  </si>
-  <si>
-    <t>Broader research planning (testing in code?); Maybe some tasks from next sprint's plan, if time.</t>
-  </si>
-  <si>
-    <t>My VA documentation</t>
-  </si>
-  <si>
-    <t>If time: create documentation update plan</t>
-  </si>
-  <si>
     <t>Research sessions/write-up/updates</t>
   </si>
   <si>
-    <t>VANotify to fix some bugs; Try again to get DMC to add debts</t>
-  </si>
-  <si>
     <t>Sprint 83 (9/21 - 10/4)</t>
   </si>
   <si>
@@ -1773,140 +1096,624 @@
     <t>Sprint 86 (11/2 - 11/15)</t>
   </si>
   <si>
-    <t xml:space="preserve">Long term planning </t>
-  </si>
-  <si>
-    <t>Launch to 50%; Launch to 100%</t>
-  </si>
-  <si>
-    <t>Payment history V2</t>
-  </si>
-  <si>
-    <t>My VA redirect</t>
-  </si>
-  <si>
-    <t>My VA audit &amp; updates</t>
-  </si>
-  <si>
-    <t>Documentations</t>
-  </si>
-  <si>
-    <t>Research/write up</t>
-  </si>
-  <si>
-    <t>FE build; Contact center guide updates; QA request</t>
-  </si>
-  <si>
-    <t>Staging review; UAT go/no-go; UAT recruiting</t>
-  </si>
-  <si>
-    <t>UAT; Launch go/no-go; Launch to 25%</t>
-  </si>
-  <si>
-    <t>UAT; Launch</t>
-  </si>
-  <si>
     <t>Rough plan from here on -- plan may need adjustment</t>
   </si>
   <si>
-    <t>Release plan and reviews</t>
-  </si>
-  <si>
-    <t>Launch to 25%</t>
-  </si>
-  <si>
-    <t>Final reviews</t>
-  </si>
-  <si>
-    <t>Launch to 50% &amp; 100%</t>
-  </si>
-  <si>
-    <t>On hold</t>
-  </si>
-  <si>
-    <t>Angela resumes work</t>
-  </si>
-  <si>
-    <t>QA; Updates from QA; Staging review prep; do we need a privacy review?</t>
-  </si>
-  <si>
-    <t>Ongoing work</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
-    <t>Continue planning; determine next steps -- unclear if work needs to start now or should wait until audit updates have been fully vetted through research</t>
-  </si>
-  <si>
-    <t>FE build; QA go/no-go; Analytics request; Release plan; UAT planning</t>
-  </si>
-  <si>
-    <t>UAT/usability testing &amp; write up; Staging review prep; Do we need a privacy review? If so, prep for that; Release plan</t>
-  </si>
-  <si>
-    <t>Launch go/no-go; Launch to 25%; Launch to 50%</t>
-  </si>
-  <si>
-    <t>UAT (postponed)</t>
-  </si>
-  <si>
-    <t>Research recruiting, UAT/usability testing ON HOLD; Contact center guide updates</t>
-  </si>
-  <si>
     <t xml:space="preserve">Updates from midpoint review; </t>
   </si>
   <si>
     <t>Another midpoint?; Research recruiting</t>
   </si>
   <si>
-    <t>Another midpoint/research recruiting</t>
-  </si>
-  <si>
-    <t>Staging review and privacy review prep</t>
-  </si>
-  <si>
-    <t>Staging review and privacy review; updates if needed</t>
-  </si>
-  <si>
-    <t>Final reviews prep</t>
-  </si>
-  <si>
-    <t>Have Tom document the backend (diagram); Design documentation</t>
-  </si>
-  <si>
-    <t>Figure out feature flag issues</t>
-  </si>
-  <si>
-    <t>Figure out e2e issues</t>
-  </si>
-  <si>
-    <t>On hold while we figure out the feature flag issue; Research recruiting</t>
-  </si>
-  <si>
-    <t>We can move on to these if there are no issues in the usability testing/UAT sessions that cause us to reevaluate our strategy.
-Hold Staging review; Privacy review; Launch go/no-go (maybe)</t>
-  </si>
-  <si>
-    <t>On hold while we get e2e issues sorted out; Call center guide (can use My VA guide); End-to-end testing July 22 (if possible)</t>
-  </si>
-  <si>
-    <t>QA; Release plan;  Make sure we know where we are tracking analytics for launch</t>
-  </si>
-  <si>
-    <t>Launch go/no-go; Launch to 10% and 25% (launch to 25% sooner if we aren't getting data at 10%)</t>
-  </si>
-  <si>
-    <t>Launch to  50% and 100%</t>
-  </si>
-  <si>
-    <t>Launch to 10% &amp; 25%</t>
-  </si>
-  <si>
-    <t>Documentation sprint</t>
-  </si>
-  <si>
     <t>Design -- FE documentation for build</t>
+  </si>
+  <si>
+    <t>Sprint 87 (11/16 - 11/29)</t>
+  </si>
+  <si>
+    <t>Sprint 88 (11/30 - 12/13)</t>
+  </si>
+  <si>
+    <t>Sprint 89 (12/14 - 12/27)</t>
+  </si>
+  <si>
+    <t>Staging and privacy review; UAT recruiting</t>
+  </si>
+  <si>
+    <t>UAT; Launch to 25% &amp; 50%</t>
+  </si>
+  <si>
+    <t>Launch to 100%; DOCUMENTATION SPRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE build; Contact center guide updates; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE build; QA go/no-go; Release plan; </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Nametag and apply for benefits; </t>
+    </r>
+  </si>
+  <si>
+    <t>Review all designs with team; Design intent; Updates from design intent; Preliminary research conversations -- do we want to test in code?</t>
+  </si>
+  <si>
+    <t>FE build; QA request if we are ready; UAT planning</t>
+  </si>
+  <si>
+    <t>Staging and privacy review prep; UAT prep</t>
+  </si>
+  <si>
+    <t>Finish FE documentation; Put together FE tickets; Start FE build if tickets are ready</t>
+  </si>
+  <si>
+    <t>Design updates to account for existing copay functionality; FE implementation when those changes are ready; QA; Updates from QA; Analytics request; Staging review prep; do we need a privacy review?; Privacy review prep</t>
+  </si>
+  <si>
+    <t>QA; Updates; privacy review</t>
+  </si>
+  <si>
+    <t>QA updates; If time, staging review; Staging review updates; Stretch goal is UAT kickoff and recruiting</t>
+  </si>
+  <si>
+    <t>FE build; Conversation guide prep; midpoint review</t>
+  </si>
+  <si>
+    <t>FE build; Design updates from midpoint review</t>
+  </si>
+  <si>
+    <t>Onboard new team; Launch to 100% if not already done; Documentation</t>
+  </si>
+  <si>
+    <t>Finish FE build; Research recruiting; PM: Analytics planning; Use case documentation for QA</t>
+  </si>
+  <si>
+    <t>UAT go/no-go; UAT recruiting; UAT if time; Launch to 25%</t>
+  </si>
+  <si>
+    <t>Launch to 50%; Launch to 100% (if time); Update Documentation</t>
+  </si>
+  <si>
+    <t>FE: Finish FE; PM: Analytics request/review; Continue/Finish QA use cases</t>
+  </si>
+  <si>
+    <t>QA go/no-go; QA; Updates from QA; Contact center guide updates; FE to implement analytics updates</t>
+  </si>
+  <si>
+    <t>On hold due to contract switch (pending team); Onboard any new team members; QA prep if AJ is still here?</t>
+  </si>
+  <si>
+    <t>Sprint 1 (1/4 - 1/17)</t>
+  </si>
+  <si>
+    <t>Sprint 2 (1/18 - 1/31)</t>
+  </si>
+  <si>
+    <t>Sprint 3 (2/1 - 2/14)</t>
+  </si>
+  <si>
+    <t>Sprint 4 (2/15 - 2/28)</t>
+  </si>
+  <si>
+    <t>Sprint 5 (3/1 - 3/14)</t>
+  </si>
+  <si>
+    <t>Sprint 6 (3/15 - 3/28)</t>
+  </si>
+  <si>
+    <t>Sprint 7 (3/29 - 4/11)</t>
+  </si>
+  <si>
+    <t>Sprint 8 (4/12 - 4/25)</t>
+  </si>
+  <si>
+    <t>Sprint 9 (4/26 - 5/9)</t>
+  </si>
+  <si>
+    <t>Sprint 10 (5/10 - 5/23)</t>
+  </si>
+  <si>
+    <t>Onboard new team; Update Payment V2 post-launch stats (1 month)</t>
+  </si>
+  <si>
+    <t>Internal team kickoff (not collab cycle); Discovery; Start scoping V2; Come up with V2 plan
+- Talk to each other to wrap our heads around what this effort could be
+- Talk to VANotify about their intake process
+- Figure out what relevant notifications VANotify supports now
+- Determine development level for adding new notifications
+- Discuss notification center concept: What do we need to answer to determine if this is the right path? How do we do this without being too leading in research?</t>
+  </si>
+  <si>
+    <t>Research recruiting; Finalize QA prep</t>
+  </si>
+  <si>
+    <t>FE changes as needed; Submit QA request for next sprint; Where are we at with analytics?</t>
+  </si>
+  <si>
+    <t>Conduct research; Research write-up</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Update Payment V2 post-launch stats (2 months)</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>Long-term planning by person</t>
+  </si>
+  <si>
+    <t>My VA Audit</t>
+  </si>
+  <si>
+    <t>Onsite notifications</t>
+  </si>
+  <si>
+    <t>Notification preferences</t>
+  </si>
+  <si>
+    <t>Logged in nav research</t>
+  </si>
+  <si>
+    <t>Onboarding</t>
+  </si>
+  <si>
+    <t>Generative military info research</t>
+  </si>
+  <si>
+    <t>On-site notifications V2</t>
+  </si>
+  <si>
+    <t>Finalize Scope of work
+- Set up meeting to talk to VANotify about notification questions
+- Set up meeting to talk about VANotify intake process</t>
+  </si>
+  <si>
+    <t>Sprint 11 (5/24 - 6/6)</t>
+  </si>
+  <si>
+    <t>Sprint 12 (6/7 - 6/20)</t>
+  </si>
+  <si>
+    <t>Sprint 13 (6/21 - 7/4)</t>
+  </si>
+  <si>
+    <t>End of Q1 - 3/31/23</t>
+  </si>
+  <si>
+    <t>End of Q2 - 6/30/23</t>
+  </si>
+  <si>
+    <t>Sprint 14 (7/5 - 7/18)</t>
+  </si>
+  <si>
+    <t>Sprint 15 (7/19 - 8/1)</t>
+  </si>
+  <si>
+    <t>Sprint 16 (8/2 - 8/15)</t>
+  </si>
+  <si>
+    <t>Sprint 17 (8/16 - 8/29)</t>
+  </si>
+  <si>
+    <t>Sprint 18 (8/30 - 9/12)</t>
+  </si>
+  <si>
+    <t>End of Q3 - 8/31/23</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collab kickoff/Design/FE discovery
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Collab cycle kickoff ticket; Finalize intake process? 
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Start on copy for new notification(s); Design updates for My VA; Complete research plan
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE &amp; BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Technical discovery (FE &amp; BE) -- How hard is implementing new notification design? How much FE work is required for a new notification if we don't update the design? Is there any BE work involved?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalize intake process/ Design intent
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Use VANotify spreadsheet to create My VA inventory/backlog for notifications to add.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finalized design/copy for notifications and My VA updates;  Design intent Create research convo guide; Kick off recruiting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Implement new notifications with old designs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA
+QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Complete QA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Make updates, if needed</t>
+    </r>
+  </si>
+  <si>
+    <t>Launch to 25%; Launch to 50%</t>
+  </si>
+  <si>
+    <t>Launch to 100%</t>
+  </si>
+  <si>
+    <t>Staging review; Privacy review; Team does prod testing (no UAT); Make sure analytics are implemented</t>
+  </si>
+  <si>
+    <t>Q1 goals: Intake process, backlog inventory; add 1 -2 new notifications</t>
+  </si>
+  <si>
+    <t>Q1 goals, if time/people: Notification center discovery</t>
+  </si>
+  <si>
+    <t>Notification center discovery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Notification center discovery research plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Notification center discovery convo guide; Start stakeholder interviews</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish stakeholder interviews; write-up</t>
+    </r>
+  </si>
+  <si>
+    <t>Continue research if we determine there's other research needed</t>
+  </si>
+  <si>
+    <t>Collab kickoff? Ready to start on designs?</t>
+  </si>
+  <si>
+    <t>Goal: launch notification center in nav</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User testing
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: QA use cases; Request QA for next sprint; Assuming FE build is done, request analytics implementation
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: User testing for My VA updates; Write-up
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Add new notification page (assuming we have one)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM/FE/VANotify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Test new onsite notifications</t>
+    </r>
+  </si>
+  <si>
+    <t>More time for FE build? User testing updates</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1790,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2020,6 +1827,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2034,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2065,13 +1902,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2389,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2404,7 +2246,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2412,7 +2254,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2420,7 +2262,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="62" x14ac:dyDescent="0.35">
@@ -2428,7 +2270,7 @@
         <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -2436,7 +2278,7 @@
         <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -2444,7 +2286,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="62" x14ac:dyDescent="0.35">
@@ -2452,7 +2294,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -2460,7 +2302,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
@@ -2468,7 +2310,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="124" x14ac:dyDescent="0.35">
@@ -2476,7 +2318,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="124" x14ac:dyDescent="0.35">
@@ -2484,7 +2326,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="155" x14ac:dyDescent="0.35">
@@ -2492,7 +2334,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -2500,7 +2342,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="201.5" x14ac:dyDescent="0.35">
@@ -2508,7 +2350,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
@@ -2516,138 +2358,186 @@
         <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>167</v>
+        <v>113</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>157</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2659,10 +2549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A29F7F-D318-4501-B539-E7F502D1032C}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2674,7 +2564,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2690,7 +2580,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
@@ -2698,171 +2588,242 @@
         <v>67</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B28" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="B29" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
-        <v>123</v>
+      <c r="B31" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2872,374 +2833,187 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF1A2-8F5D-4461-9230-B3FBD9CF2CBA}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.58203125" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.9140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="37" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="186" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="124" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" customWidth="1"/>
-    <col min="3" max="3" width="92.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="186" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="155" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="155" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3248,271 +3022,185 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F966BB8-785F-4C4B-BE66-8CAED743FD9B}">
-  <dimension ref="A1:B8"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FCA98A-D765-447F-8B35-C4E5F903CE52}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B12:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.08203125" customWidth="1"/>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="1" max="1" width="21.9140625" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="23.4140625" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="21.08203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3529,7 +3217,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/my-va/My VA long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/my-va/My VA long term project planning.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFDFC0-3FE1-4967-86DE-0B8DD3598324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A2829D-EB36-49B9-92A3-BA0388CD1E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="100" windowWidth="19180" windowHeight="10100" tabRatio="816" activeTab="2" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="20" yWindow="100" windowWidth="19180" windowHeight="10100" tabRatio="816" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
-    <sheet name="My VA_Payment history" sheetId="1" r:id="rId1"/>
-    <sheet name="My VA_Audit" sheetId="20" r:id="rId2"/>
-    <sheet name="My VA_On-site notifications" sheetId="11" r:id="rId3"/>
-    <sheet name="LT planning by person" sheetId="21" r:id="rId4"/>
-    <sheet name="Task list for projects" sheetId="7" r:id="rId5"/>
+    <sheet name="Payment history" sheetId="1" r:id="rId1"/>
+    <sheet name="My VA Audit" sheetId="20" r:id="rId2"/>
+    <sheet name="On-site notifications" sheetId="11" r:id="rId3"/>
+    <sheet name="Update claim status integration" sheetId="22" r:id="rId4"/>
+    <sheet name="LT planning by person" sheetId="21" r:id="rId5"/>
+    <sheet name="Task list for projects" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="221">
   <si>
     <t>PM</t>
   </si>
@@ -1262,15 +1263,6 @@
     <t>Update Payment V2 post-launch stats (2 months)</t>
   </si>
   <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Liz</t>
-  </si>
-  <si>
-    <t>Florence</t>
-  </si>
-  <si>
     <t>Long-term planning by person</t>
   </si>
   <si>
@@ -1287,9 +1279,6 @@
   </si>
   <si>
     <t>Onboarding</t>
-  </si>
-  <si>
-    <t>Generative military info research</t>
   </si>
   <si>
     <t>On-site notifications V2</t>
@@ -1539,9 +1528,6 @@
     <t>Q1 goals, if time/people: Notification center discovery</t>
   </si>
   <si>
-    <t>Notification center discovery</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1714,6 +1700,130 @@
   </si>
   <si>
     <t>More time for FE build? User testing updates</t>
+  </si>
+  <si>
+    <t>Military info research</t>
+  </si>
+  <si>
+    <t>Allison (FE)</t>
+  </si>
+  <si>
+    <t>Angela (Design)</t>
+  </si>
+  <si>
+    <t>Liz (Design)</t>
+  </si>
+  <si>
+    <t>Florence (Design)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Notification center discovery?</t>
+  </si>
+  <si>
+    <t>Adam (FE)</t>
+  </si>
+  <si>
+    <t>Profile accessibility</t>
+  </si>
+  <si>
+    <t>My VA: Update claims integration</t>
+  </si>
+  <si>
+    <t>On hold until we have someone available</t>
+  </si>
+  <si>
+    <t>FE implementation</t>
+  </si>
+  <si>
+    <t>QA; Bug fixes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Collab cycle kickoff
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Discovery; Effort scoped by end of sprint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Discovery (likely does not need any backend updates, but Tom should confirm)</t>
+    </r>
+  </si>
+  <si>
+    <t>Privacy review; Launch to 25%</t>
+  </si>
+  <si>
+    <t>Launch to 50%; Launch to 100%</t>
+  </si>
+  <si>
+    <t>FE implementation/testing; Do we need analytics updates?</t>
+  </si>
+  <si>
+    <t>Update claim status integration - Have Adam do this work if Allison is too busy with onsite notifications</t>
+  </si>
+  <si>
+    <t>Tom (BE)</t>
+  </si>
+  <si>
+    <t>Direct deposit EVSS &gt; Lightouse</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1900,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1857,6 +1967,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1871,7 +1999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1916,6 +2044,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2551,14 +2683,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A29F7F-D318-4501-B539-E7F502D1032C}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.58203125" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
     <col min="3" max="3" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2583,7 +2715,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -2693,7 +2825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -2736,7 +2868,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>124</v>
       </c>
@@ -2744,7 +2876,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -2836,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2850,7 +2982,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C1" s="25"/>
     </row>
@@ -2859,13 +2991,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="186" x14ac:dyDescent="0.35">
@@ -2882,7 +3014,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
@@ -2890,7 +3022,7 @@
         <v>150</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="124" x14ac:dyDescent="0.35">
@@ -2898,7 +3030,7 @@
         <v>151</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
@@ -2906,10 +3038,10 @@
         <v>152</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2917,10 +3049,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="62" x14ac:dyDescent="0.35">
@@ -2928,13 +3060,13 @@
         <v>154</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2942,10 +3074,10 @@
         <v>155</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -2953,7 +3085,7 @@
         <v>156</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2961,59 +3093,59 @@
         <v>157</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3023,175 +3155,148 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FCA98A-D765-447F-8B35-C4E5F903CE52}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52132C27-55FF-4F4D-BFCB-8D87A5B0B576}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.9140625" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.9140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="B12" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3201,6 +3306,321 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FCA98A-D765-447F-8B35-C4E5F903CE52}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.9140625" customWidth="1"/>
+    <col min="2" max="2" width="20.9140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="24.9140625" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.4140625" customWidth="1"/>
+    <col min="7" max="7" width="24.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
